--- a/models_2024-11-15.xlsx
+++ b/models_2024-11-15.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\P_Carabidae.FD\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7664224-7213-485B-801D-C1BDDE81A1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF8E74-2762-4FB6-AFFB-808B33040D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$E$49</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -250,12 +253,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,25 +285,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -639,16 +678,16 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -687,8 +726,8 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="F2" s="3">
         <v>53.66481703027786</v>
@@ -700,7 +739,7 @@
         <v>0.68463843379034328</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -713,8 +752,8 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F3" s="3">
         <v>57.918949941301257</v>
@@ -726,7 +765,7 @@
         <v>0.57387945695975329</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -739,8 +778,8 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>42</v>
+      <c r="E4" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="3">
         <v>68.373712074683581</v>
@@ -752,349 +791,349 @@
         <v>0.46333931980268361</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3">
+        <v>99.515612505817614</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.107407165129862</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.613060991590182E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>265.57159614949512</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.74181874637399581</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.63093700609223824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3">
+        <v>266.70720827805093</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.79079834833961882</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.61996166435220845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3">
+        <v>269.04895262540077</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.80010863002170785</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.65919295366379127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F9" s="3">
+        <v>289.47729917120267</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.7331192526569753E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.52096756577539638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3">
+        <v>346.21170138047648</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.13714711322797701</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.18597069586709411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>347.02177757904872</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9.5733175104722637E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.19497318910231609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3">
+        <v>355.16573348299852</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.18537912039307919</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.2234680506788794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3">
+        <v>355.96879574251523</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.3646437184846258E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9.142653186506719E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3">
         <v>72.287078027407645</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G14" s="2">
         <v>0.1019772544589123</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H14" s="2">
         <v>0.90442775276395704</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3">
         <v>73.68250863066234</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G15" s="2">
         <v>0.218333027780476</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H15" s="2">
         <v>0.88006814893147978</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3">
-        <v>99.515612505817614</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.107407165129862</v>
-      </c>
-      <c r="H7" s="2">
-        <v>8.613060991590182E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="3">
-        <v>162.86431939492181</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.2790448853712409E-6</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.41811292568588998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3">
-        <v>192.79192680988851</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2.251744002638149E-8</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3.3293664018409301E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3">
-        <v>265.57159614949512</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.74181874637399581</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.63093700609223824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="3">
-        <v>266.70720827805093</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.79079834833961882</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.61996166435220845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3">
-        <v>269.04895262540077</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.80010863002170785</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.65919295366379127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3">
-        <v>289.47729917120267</v>
-      </c>
-      <c r="G13" s="2">
-        <v>7.7331192526569753E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.52096756577539638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="3">
-        <v>298.16350739671361</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.82978322135316906</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.75724817752272389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="3">
-        <v>302.0035002452741</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.81029544499892125</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.77346781956760291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
+      <c r="B16" t="s">
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
-        <v>46</v>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="F16" s="3">
-        <v>346.21170138047648</v>
+        <v>162.86431939492181</v>
       </c>
       <c r="G16" s="2">
-        <v>0.13714711322797701</v>
+        <v>3.2790448853712409E-6</v>
       </c>
       <c r="H16" s="2">
-        <v>0.18597069586709411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.41811292568588998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>60</v>
+      <c r="E17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="3">
-        <v>347.02177757904872</v>
+        <v>192.79192680988851</v>
       </c>
       <c r="G17" s="2">
-        <v>9.5733175104722637E-2</v>
+        <v>2.251744002638149E-8</v>
       </c>
       <c r="H17" s="2">
-        <v>0.19497318910231609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3.3293664018409301E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>32</v>
+      <c r="E18" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F18" s="3">
-        <v>355.16573348299852</v>
+        <v>298.16350739671361</v>
       </c>
       <c r="G18" s="2">
-        <v>0.18537912039307919</v>
+        <v>0.82978322135316906</v>
       </c>
       <c r="H18" s="2">
-        <v>0.2234680506788794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.75724817752272389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>18</v>
+      <c r="E19" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="3">
-        <v>355.96879574251523</v>
+        <v>302.0035002452741</v>
       </c>
       <c r="G19" s="2">
-        <v>3.3646437184846258E-2</v>
+        <v>0.81029544499892125</v>
       </c>
       <c r="H19" s="2">
-        <v>9.142653186506719E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.77346781956760291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1102,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F20" s="3">
         <v>369.54134015836462</v>
@@ -1114,7 +1153,7 @@
         <v>0.54018013835374934</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1122,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F21" s="3">
         <v>378.06976945079242</v>
@@ -1134,7 +1173,7 @@
         <v>0.51402339754799242</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1142,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3">
         <v>386.0328079425322</v>
@@ -1154,7 +1193,7 @@
         <v>0.53036821972180881</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F23" s="3">
         <v>416.13493655456631</v>
@@ -1174,7 +1213,7 @@
         <v>0.30587993725325319</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1194,7 +1233,7 @@
         <v>0.30554705612754363</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1253,7 @@
         <v>8.0220267639977347E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1240,7 +1279,7 @@
         <v>0.99892549371030981</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +1302,7 @@
         <v>0.99924785736931132</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1289,7 +1328,7 @@
         <v>0.99807888111933063</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1312,7 +1351,7 @@
         <v>0.99876505846859942</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1338,7 +1377,7 @@
         <v>0.99714763696471131</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1361,7 +1400,7 @@
         <v>0.99729643654798039</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1426,7 @@
         <v>0.92975311811009254</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1449,7 @@
         <v>0.99773558857550881</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1433,7 +1472,7 @@
         <v>0.99718064099174586</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +1492,7 @@
         <v>0.99803832725539721</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1473,7 +1512,7 @@
         <v>0.9975965593356334</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1496,7 +1535,7 @@
         <v>0.9967149868328119</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +1558,7 @@
         <v>0.83801998805640743</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1539,7 +1578,7 @@
         <v>0.99643120096067084</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1601,7 @@
         <v>0.99380105013445486</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1582,7 +1621,7 @@
         <v>0.99033939937444637</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -1605,7 +1644,7 @@
         <v>0.98019502368225431</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1625,7 +1664,7 @@
         <v>0.98802530528515764</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1648,7 +1687,7 @@
         <v>0.97573447473521624</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1671,7 +1710,7 @@
         <v>0.98545920222955352</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1730,7 @@
         <v>0.99035010121969458</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -1711,7 +1750,7 @@
         <v>0.98362605613450205</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1734,7 +1773,7 @@
         <v>0.65223160656074741</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1755,11 +1794,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
-    <sortCondition ref="F1:F49"/>
+  <autoFilter ref="D1:E49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortCondition ref="C1:C49"/>
   </sortState>
   <conditionalFormatting sqref="G2:G49">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
